--- a/MarsQA-1/SpecflowTests/Data/Mars.xlsx
+++ b/MarsQA-1/SpecflowTests/Data/Mars.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhij\Desktop\Project file - Copy - Copy - Copy\onboarding.specflow\MarsQA-1\SpecflowTests\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhij\Desktop\Task 2 Project mars My Work\MarsQA-1\SpecflowTests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0E5782-63F1-493F-80D9-2B13A75143C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578C4261-27AA-4174-9ED3-84A38B8979C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>dutta.papri23@gmail.com</t>
-  </si>
-  <si>
-    <t>P4ssW0rd8689</t>
   </si>
 </sst>
 </file>
@@ -313,7 +307,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -332,12 +326,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="5"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -1330,9 +1320,6 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B5B9FF5B-2EBC-4886-A0E9-6403C3E10F5C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
